--- a/branches/release-candidate/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/release-candidate/StructureDefinition-be-medicationdispense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="706">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:46:48+00:00</t>
+    <t>2024-11-19T08:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
-    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>
+    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2393,9 +2393,7 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
